--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll1</t>
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H2">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I2">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J2">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N2">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q2">
-        <v>295.845474058811</v>
+        <v>1002.363253815499</v>
       </c>
       <c r="R2">
-        <v>2662.609266529299</v>
+        <v>9021.269284339487</v>
       </c>
       <c r="S2">
-        <v>0.4042963758205519</v>
+        <v>0.516776105029438</v>
       </c>
       <c r="T2">
-        <v>0.4042963758205519</v>
+        <v>0.516776105029438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H3">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I3">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J3">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q3">
-        <v>14.06212171471889</v>
+        <v>23.38753382347555</v>
       </c>
       <c r="R3">
-        <v>126.55909543247</v>
+        <v>210.48780441128</v>
       </c>
       <c r="S3">
-        <v>0.01921700801303507</v>
+        <v>0.01205762341100803</v>
       </c>
       <c r="T3">
-        <v>0.01921700801303507</v>
+        <v>0.01205762341100803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H4">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I4">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J4">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N4">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q4">
-        <v>14.62367235183845</v>
+        <v>32.82824535290667</v>
       </c>
       <c r="R4">
-        <v>131.613051166546</v>
+        <v>295.45420817616</v>
       </c>
       <c r="S4">
-        <v>0.01998441163193251</v>
+        <v>0.0169248550401754</v>
       </c>
       <c r="T4">
-        <v>0.01998441163193251</v>
+        <v>0.0169248550401754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H5">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I5">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J5">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N5">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O5">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P5">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q5">
-        <v>10.523437521937</v>
+        <v>18.29016367734845</v>
       </c>
       <c r="R5">
-        <v>94.71093769743301</v>
+        <v>164.611473096136</v>
       </c>
       <c r="S5">
-        <v>0.01438111454916958</v>
+        <v>0.009429634924816204</v>
       </c>
       <c r="T5">
-        <v>0.01438111454916958</v>
+        <v>0.009429634924816202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H6">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I6">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J6">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N6">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q6">
-        <v>6.366029652451</v>
+        <v>12.96866550432133</v>
       </c>
       <c r="R6">
-        <v>57.294266872059</v>
+        <v>116.717989538892</v>
       </c>
       <c r="S6">
-        <v>0.00869968595950354</v>
+        <v>0.006686095506037379</v>
       </c>
       <c r="T6">
-        <v>0.00869968595950354</v>
+        <v>0.006686095506037381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H7">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I7">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J7">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q7">
-        <v>0.302590006141111</v>
+        <v>0.3025900061411111</v>
       </c>
       <c r="R7">
-        <v>2.723310055269999</v>
+        <v>2.72331005527</v>
       </c>
       <c r="S7">
-        <v>0.0004135133154616068</v>
+        <v>0.0001560026110286958</v>
       </c>
       <c r="T7">
-        <v>0.0004135133154616069</v>
+        <v>0.0001560026110286958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H8">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I8">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J8">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N8">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q8">
-        <v>0.3146735035095556</v>
+        <v>0.4247347769933334</v>
       </c>
       <c r="R8">
-        <v>2.832061531586</v>
+        <v>3.82261299294</v>
       </c>
       <c r="S8">
-        <v>0.0004300263758991248</v>
+        <v>0.0002189752895366643</v>
       </c>
       <c r="T8">
-        <v>0.0004300263758991248</v>
+        <v>0.0002189752895366643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H9">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I9">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J9">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N9">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O9">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P9">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q9">
-        <v>0.226444279817</v>
+        <v>0.2366397748998889</v>
       </c>
       <c r="R9">
-        <v>2.037998518353</v>
+        <v>2.129757974099</v>
       </c>
       <c r="S9">
-        <v>0.0003094541227867787</v>
+        <v>0.0001220014607501933</v>
       </c>
       <c r="T9">
-        <v>0.0003094541227867787</v>
+        <v>0.0001220014607501933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H10">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I10">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J10">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N10">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q10">
-        <v>343.9101402170861</v>
+        <v>788.3680110373506</v>
       </c>
       <c r="R10">
-        <v>3095.191261953774</v>
+        <v>7095.312099336155</v>
       </c>
       <c r="S10">
-        <v>0.4699805658343981</v>
+        <v>0.4064492074334136</v>
       </c>
       <c r="T10">
-        <v>0.4699805658343981</v>
+        <v>0.4064492074334137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H11">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I11">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J11">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q11">
-        <v>16.34673055602444</v>
+        <v>18.39451262134555</v>
       </c>
       <c r="R11">
-        <v>147.12057500422</v>
+        <v>165.55061359211</v>
       </c>
       <c r="S11">
-        <v>0.02233910774312529</v>
+        <v>0.009483432827560036</v>
       </c>
       <c r="T11">
-        <v>0.0223391077431253</v>
+        <v>0.009483432827560038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H12">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I12">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J12">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N12">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q12">
-        <v>16.99951376646623</v>
+        <v>25.81971994304667</v>
       </c>
       <c r="R12">
-        <v>152.995623898196</v>
+        <v>232.37747948742</v>
       </c>
       <c r="S12">
-        <v>0.02323118793133075</v>
+        <v>0.0133115557202724</v>
       </c>
       <c r="T12">
-        <v>0.02323118793133075</v>
+        <v>0.0133115557202724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.89091033333333</v>
+      </c>
+      <c r="H13">
+        <v>38.672731</v>
+      </c>
+      <c r="I13">
+        <v>0.4366606914505164</v>
+      </c>
+      <c r="J13">
+        <v>0.4366606914505165</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.115932333333334</v>
+      </c>
+      <c r="N13">
+        <v>3.347797</v>
+      </c>
+      <c r="O13">
+        <v>0.01698457318114416</v>
+      </c>
+      <c r="P13">
+        <v>0.01698457318114415</v>
+      </c>
+      <c r="Q13">
+        <v>14.38538364706745</v>
+      </c>
+      <c r="R13">
+        <v>129.468452823607</v>
+      </c>
+      <c r="S13">
+        <v>0.007416495469270304</v>
+      </c>
+      <c r="T13">
+        <v>0.007416495469270305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.45582066666667</v>
-      </c>
-      <c r="H13">
-        <v>34.367462</v>
-      </c>
-      <c r="I13">
-        <v>0.53226841021166</v>
-      </c>
-      <c r="J13">
-        <v>0.53226841021166</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.067853</v>
-      </c>
-      <c r="N13">
-        <v>3.203559</v>
-      </c>
-      <c r="O13">
-        <v>0.03140811737476231</v>
-      </c>
-      <c r="P13">
-        <v>0.0314081173747623</v>
-      </c>
-      <c r="Q13">
-        <v>12.233132466362</v>
-      </c>
-      <c r="R13">
-        <v>110.098192197258</v>
-      </c>
-      <c r="S13">
-        <v>0.01671754870280595</v>
-      </c>
-      <c r="T13">
-        <v>0.01671754870280595</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.085732</v>
+      </c>
+      <c r="I14">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J14">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>61.156892</v>
+      </c>
+      <c r="N14">
+        <v>183.470676</v>
+      </c>
+      <c r="O14">
+        <v>0.9308124486389074</v>
+      </c>
+      <c r="P14">
+        <v>0.9308124486389074</v>
+      </c>
+      <c r="Q14">
+        <v>1.747700888314667</v>
+      </c>
+      <c r="R14">
+        <v>15.729307994832</v>
+      </c>
+      <c r="S14">
+        <v>0.0009010406700184019</v>
+      </c>
+      <c r="T14">
+        <v>0.0009010406700184021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.085732</v>
+      </c>
+      <c r="I15">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J15">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.426936666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.28081</v>
+      </c>
+      <c r="O15">
+        <v>0.02171808228502914</v>
+      </c>
+      <c r="P15">
+        <v>0.02171808228502914</v>
+      </c>
+      <c r="Q15">
+        <v>0.04077804476888888</v>
+      </c>
+      <c r="R15">
+        <v>0.36700240292</v>
+      </c>
+      <c r="S15">
+        <v>2.102343543238198E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.102343543238199E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.085732</v>
+      </c>
+      <c r="I16">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J16">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.00294</v>
+      </c>
+      <c r="N16">
+        <v>6.00882</v>
+      </c>
+      <c r="O16">
+        <v>0.03048489589491914</v>
+      </c>
+      <c r="P16">
+        <v>0.03048489589491914</v>
+      </c>
+      <c r="Q16">
+        <v>0.05723868402666667</v>
+      </c>
+      <c r="R16">
+        <v>0.51514815624</v>
+      </c>
+      <c r="S16">
+        <v>2.950984493467487E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.950984493467487E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.085732</v>
+      </c>
+      <c r="I17">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J17">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.115932333333334</v>
+      </c>
+      <c r="N17">
+        <v>3.347797</v>
+      </c>
+      <c r="O17">
+        <v>0.01698457318114416</v>
+      </c>
+      <c r="P17">
+        <v>0.01698457318114415</v>
+      </c>
+      <c r="Q17">
+        <v>0.03189037026711112</v>
+      </c>
+      <c r="R17">
+        <v>0.2870133324040001</v>
+      </c>
+      <c r="S17">
+        <v>1.644132630745633E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.644132630745633E-05</v>
       </c>
     </row>
   </sheetData>
